--- a/bin/Release/net6.0/PasswordClient.xlsx
+++ b/bin/Release/net6.0/PasswordClient.xlsx
@@ -23,7 +23,7 @@
     </d:r>
   </si>
   <si>
-    <t/>
+    <t>8BAOIqYmjpqu4cLbce5+T88zlK7EmSj1u7T40+y75Bs=</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
+  <sheetProtection sheet="1" password="ea13"/>
   <headerFooter/>
 </worksheet>
 </file>